--- a/data/trans_orig/P70B_R2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70B_R2_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>16520</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8773</v>
+        <v>9333</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28502</v>
+        <v>27685</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1025223231213676</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05444654210695012</v>
+        <v>0.0579225964272042</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1768793919058079</v>
+        <v>0.171813616904206</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -762,19 +762,19 @@
         <v>10654</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5788</v>
+        <v>6130</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17009</v>
+        <v>17200</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1258638839624044</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0683811798381177</v>
+        <v>0.07241500563446431</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2009323564986553</v>
+        <v>0.2031903856345997</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -783,19 +783,19 @@
         <v>27174</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19041</v>
+        <v>17414</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39835</v>
+        <v>40482</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1105613064438072</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.077471329535294</v>
+        <v>0.07085052960245145</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1620727961388727</v>
+        <v>0.1647049829785117</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>144616</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>132634</v>
+        <v>133451</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>152363</v>
+        <v>151803</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8974776768786326</v>
+        <v>0.8974776768786322</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8231206080941922</v>
+        <v>0.8281863830957942</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9455534578930499</v>
+        <v>0.9420774035727959</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>101</v>
@@ -833,19 +833,19 @@
         <v>73996</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>67641</v>
+        <v>67450</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>78862</v>
+        <v>78520</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8741361160375957</v>
+        <v>0.8741361160375956</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7990676435013447</v>
+        <v>0.7968096143654001</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9316188201618822</v>
+        <v>0.9275849943655352</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>226</v>
@@ -854,19 +854,19 @@
         <v>218612</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>205951</v>
+        <v>205304</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>226745</v>
+        <v>228372</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8894386935561928</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8379272038611271</v>
+        <v>0.8352950170214883</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.922528670464706</v>
+        <v>0.9291494703975486</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>223332</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>191987</v>
+        <v>193989</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>255413</v>
+        <v>258652</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1775096268014446</v>
+        <v>0.1775096268014445</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.152596012818553</v>
+        <v>0.1541872004026907</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2030088501819549</v>
+        <v>0.2055830522224176</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>192</v>
@@ -979,19 +979,19 @@
         <v>148787</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>130098</v>
+        <v>130465</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>170776</v>
+        <v>171101</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.159925025008318</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1398367045697169</v>
+        <v>0.1402319515764675</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1835601690946252</v>
+        <v>0.1839091328405699</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>379</v>
@@ -1000,19 +1000,19 @@
         <v>372118</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>335617</v>
+        <v>339698</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>409245</v>
+        <v>411088</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1700342051725775</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1533552374124796</v>
+        <v>0.1552200227858004</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1869985368347538</v>
+        <v>0.1878408697179353</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1034806</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1002725</v>
+        <v>999486</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1066151</v>
+        <v>1064149</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8224903731985554</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7969911498180451</v>
+        <v>0.7944169477775826</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.847403987181447</v>
+        <v>0.8458127995973095</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1046</v>
@@ -1050,19 +1050,19 @@
         <v>781567</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>759578</v>
+        <v>759253</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>800256</v>
+        <v>799889</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8400749749916818</v>
+        <v>0.840074974991682</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8164398309053749</v>
+        <v>0.8160908671594301</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.860163295430283</v>
+        <v>0.8597680484235325</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1938</v>
@@ -1071,19 +1071,19 @@
         <v>1816374</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1779247</v>
+        <v>1777404</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1852875</v>
+        <v>1848794</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8299657948274224</v>
+        <v>0.8299657948274227</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.813001463165246</v>
+        <v>0.8121591302820647</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8466447625875202</v>
+        <v>0.8447799772141996</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>38347</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25567</v>
+        <v>26388</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54671</v>
+        <v>56244</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07986225946548416</v>
+        <v>0.07986225946548417</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05324807300235729</v>
+        <v>0.05495747628968675</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1138613270076437</v>
+        <v>0.1171356805238931</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>72</v>
@@ -1196,19 +1196,19 @@
         <v>57581</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44854</v>
+        <v>45951</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70694</v>
+        <v>71829</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1204613621437292</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09383496384704271</v>
+        <v>0.09613005828741972</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1478936412629493</v>
+        <v>0.1502680057990428</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>102</v>
@@ -1217,19 +1217,19 @@
         <v>95928</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>77991</v>
+        <v>77727</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>115836</v>
+        <v>117920</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1001161960295851</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08139649332922179</v>
+        <v>0.08112058841140123</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1208943714498633</v>
+        <v>0.1230692845960468</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>441811</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>425487</v>
+        <v>423914</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>454591</v>
+        <v>453770</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9201377405345159</v>
+        <v>0.9201377405345158</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8861386729923565</v>
+        <v>0.8828643194761071</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9467519269976428</v>
+        <v>0.9450425237103135</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>572</v>
@@ -1267,19 +1267,19 @@
         <v>420424</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>407311</v>
+        <v>406176</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>433151</v>
+        <v>432054</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8795386378562706</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8521063587370509</v>
+        <v>0.8497319942009571</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9061650361529574</v>
+        <v>0.9038699417125804</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>964</v>
@@ -1288,19 +1288,19 @@
         <v>862234</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>842326</v>
+        <v>840242</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>880171</v>
+        <v>880435</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8998838039704149</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8791056285501369</v>
+        <v>0.8769307154039532</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9186035066707783</v>
+        <v>0.9188794115885989</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>278198</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>242486</v>
+        <v>242294</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>318565</v>
+        <v>312561</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.146463892255808</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.127662594936901</v>
+        <v>0.1275615252329916</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1677160253861512</v>
+        <v>0.1645549112871096</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>278</v>
@@ -1413,19 +1413,19 @@
         <v>217022</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>191443</v>
+        <v>192927</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>241419</v>
+        <v>242092</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1453590726259174</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1282262035171632</v>
+        <v>0.1292199356907386</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.161699777644453</v>
+        <v>0.1621504562170484</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>508</v>
@@ -1434,19 +1434,19 @@
         <v>495220</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>453011</v>
+        <v>451798</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>543228</v>
+        <v>541422</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1459776625401893</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1335353519700425</v>
+        <v>0.1331779679851656</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1601289431511679</v>
+        <v>0.1595966531664504</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>1621234</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1580867</v>
+        <v>1586871</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1656946</v>
+        <v>1657138</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8535361077441921</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8322839746138487</v>
+        <v>0.8354450887128905</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.872337405063099</v>
+        <v>0.8724384747670082</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1719</v>
@@ -1484,19 +1484,19 @@
         <v>1275987</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1251590</v>
+        <v>1250917</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1301566</v>
+        <v>1300082</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8546409273740828</v>
+        <v>0.8546409273740825</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8383002223555471</v>
+        <v>0.8378495437829517</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8717737964828368</v>
+        <v>0.8707800643092614</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3128</v>
@@ -1505,19 +1505,19 @@
         <v>2897220</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2849212</v>
+        <v>2851018</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2939429</v>
+        <v>2940642</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8540223374598106</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8398710568488323</v>
+        <v>0.8404033468335509</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8664646480299576</v>
+        <v>0.8668220320148352</v>
       </c>
     </row>
     <row r="15">
